--- a/BackTest/2019-10-31 BackTest HC.xlsx
+++ b/BackTest/2019-10-31 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,22 +517,15 @@
         <v>-3636.011900000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,22 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -610,24 +583,15 @@
         <v>-3395.482100000002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -654,22 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -696,22 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -738,22 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -780,22 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -822,22 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -864,22 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -906,22 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -948,24 +849,13 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1931</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -992,22 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1032,26 +913,15 @@
         <v>-8162.187200000002</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1930</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1076,26 +946,15 @@
         <v>-8162.187200000002</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1930</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1120,26 +979,15 @@
         <v>-10875.5131</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1930</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1166,22 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1206,26 +1045,15 @@
         <v>-10860.1824</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1925</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1252,22 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1294,22 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1336,22 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1378,22 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1420,22 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1462,22 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1504,22 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1546,22 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1588,22 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1630,22 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1672,22 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1714,22 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1756,22 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1798,22 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1840,22 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1882,22 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1924,22 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1966,22 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2008,22 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2050,22 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2092,22 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2134,22 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2176,22 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2218,22 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2260,22 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2302,22 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2344,22 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2386,22 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2426,24 +2002,19 @@
         <v>-8614.716500000002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
         <v>1942</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2470,22 +2041,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
         <v>1942</v>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2512,22 +2080,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
         <v>1942</v>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2552,24 +2117,19 @@
         <v>-8520.251900000003</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>1953</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2594,24 +2154,23 @@
         <v>-8520.131900000002</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>1952</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2638,22 +2197,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2680,22 +2236,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2720,24 +2273,23 @@
         <v>-9164.708900000001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L56" t="inlineStr">
+        <v>1949</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2764,22 +2316,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2804,26 +2353,21 @@
         <v>-9182.805800000002</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>1937</v>
-      </c>
-      <c r="K58" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L58" t="inlineStr">
+        <v>1953</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2848,24 +2392,23 @@
         <v>-9182.685800000001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L59" t="inlineStr">
+        <v>1944</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2892,22 +2435,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2934,22 +2474,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2974,26 +2511,21 @@
         <v>-9197.6247</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>1940</v>
-      </c>
-      <c r="K62" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L62" t="inlineStr">
+        <v>1953</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3020,22 +2552,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3062,22 +2591,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3104,22 +2630,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3146,22 +2669,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3188,22 +2708,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3230,22 +2747,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3272,22 +2786,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3314,22 +2825,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3356,22 +2864,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3398,22 +2903,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3440,22 +2942,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3480,24 +2979,21 @@
         <v>-9639.732899999997</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1953</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.004728622631849</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3522,24 +3018,15 @@
         <v>-9639.732899999997</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3564,24 +3051,15 @@
         <v>-9477.838399999997</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3606,24 +3084,15 @@
         <v>-9878.053899999997</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3648,24 +3117,15 @@
         <v>-9848.053899999997</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3690,24 +3150,15 @@
         <v>-10148.2155</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3732,24 +3183,15 @@
         <v>-10148.1155</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3774,24 +3216,15 @@
         <v>-10633.258</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>1942</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1.009418125643667</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3816,18 +3249,15 @@
         <v>-10869.6845</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3852,18 +3282,15 @@
         <v>-10638.0728</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3888,18 +3315,15 @@
         <v>-10637.9728</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3924,18 +3348,15 @@
         <v>-10656.0663</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3962,16 +3383,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3998,16 +3416,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4032,18 +3447,15 @@
         <v>-11100.6677</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4068,18 +3480,15 @@
         <v>-11100.5677</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4104,18 +3513,15 @@
         <v>-11206.4866</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4140,18 +3546,15 @@
         <v>-11225.0207</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4178,16 +3581,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4214,16 +3614,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4250,16 +3647,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4286,16 +3680,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4320,18 +3711,19 @@
         <v>-11463.102</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>1940</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1940</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4356,18 +3748,23 @@
         <v>-11363.102</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>1945</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1940</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4392,22 +3789,23 @@
         <v>-11368.102</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1946</v>
       </c>
       <c r="J98" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K98" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>1940</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4434,22 +3832,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4474,26 +3863,15 @@
         <v>-11645.6874</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1923</v>
-      </c>
-      <c r="K100" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4518,26 +3896,21 @@
         <v>-11682.4874</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
         <v>1921</v>
       </c>
-      <c r="K101" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4562,26 +3935,21 @@
         <v>-10548.6104</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
         <v>1918</v>
       </c>
-      <c r="K102" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4606,26 +3974,21 @@
         <v>-10231.2304</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
         <v>1931</v>
       </c>
-      <c r="K103" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4650,26 +4013,21 @@
         <v>-12586.6401</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
         <v>1934</v>
       </c>
-      <c r="K104" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4694,24 +4052,21 @@
         <v>-12507.7901</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1931</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4736,26 +4091,19 @@
         <v>-15352.3542</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>1940</v>
-      </c>
-      <c r="K106" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L106" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4782,22 +4130,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4824,22 +4167,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4864,24 +4202,21 @@
         <v>-14838.8903</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1955</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4906,24 +4241,21 @@
         <v>-14838.8903</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1961</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4950,22 +4282,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4990,26 +4317,21 @@
         <v>-14838.8903</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
         <v>1961</v>
       </c>
-      <c r="K112" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5036,22 +4358,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5076,26 +4393,19 @@
         <v>-14838.8903</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K114" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L114" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5120,26 +4430,19 @@
         <v>-14303.7903</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K115" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L115" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5166,22 +4469,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5208,22 +4506,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5248,28 +4541,21 @@
         <v>-14528.7903</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1960</v>
-      </c>
-      <c r="K118" t="n">
-        <v>1946</v>
-      </c>
-      <c r="L118" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest HC.xlsx
+++ b/BackTest/2019-10-31 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3302.384700000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3404.286300000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-3636.011900000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3368.311900000002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-3395.482100000002</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4553.113600000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-4411.253600000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-4482.213500000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-4556.022900000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-4427.312900000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4415.203700000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8162.187200000002</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8162.187200000002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-8162.187200000002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-8162.187200000002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-10875.5131</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-10902.1992</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-10860.1824</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-10727.3</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -2002,14 +2002,10 @@
         <v>-8614.716500000002</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1942</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1942</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
@@ -2042,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2081,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2117,14 +2101,10 @@
         <v>-8520.251900000003</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1953</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
@@ -2154,19 +2134,11 @@
         <v>-8520.131900000002</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1952</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2198,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2237,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2273,19 +2233,11 @@
         <v>-9164.708900000001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1949</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2317,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2356,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2392,19 +2332,11 @@
         <v>-9182.685800000001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1944</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2436,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2475,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2514,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2553,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2592,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2631,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2670,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2709,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2748,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2787,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2826,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2865,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2904,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2943,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2979,19 +2827,13 @@
         <v>-9639.732899999997</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>1953</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>1.004728622631849</v>
+        <v>1</v>
       </c>
       <c r="M74" t="inlineStr"/>
     </row>
@@ -3018,7 +2860,7 @@
         <v>-9639.732899999997</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3051,7 +2893,7 @@
         <v>-9477.838399999997</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3084,7 +2926,7 @@
         <v>-9878.053899999997</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3117,7 +2959,7 @@
         <v>-9848.053899999997</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3150,7 +2992,7 @@
         <v>-10148.2155</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3183,7 +3025,7 @@
         <v>-10148.1155</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3216,7 +3058,7 @@
         <v>-10633.258</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3249,7 +3091,7 @@
         <v>-10869.6845</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3282,7 +3124,7 @@
         <v>-10638.0728</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3315,7 +3157,7 @@
         <v>-10637.9728</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3348,7 +3190,7 @@
         <v>-10656.0663</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3447,7 +3289,7 @@
         <v>-11100.6677</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3480,7 +3322,7 @@
         <v>-11100.5677</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3513,7 +3355,7 @@
         <v>-11206.4866</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3546,7 +3388,7 @@
         <v>-11225.0207</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3711,14 +3553,10 @@
         <v>-11463.102</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1940</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
@@ -3748,19 +3586,11 @@
         <v>-11363.102</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1945</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1940</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3789,19 +3619,11 @@
         <v>-11368.102</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1946</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1940</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3830,10 +3652,14 @@
         <v>-11526.4612</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1935</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1935</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3863,11 +3689,19 @@
         <v>-11645.6874</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1923</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1935</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3896,15 +3730,17 @@
         <v>-11682.4874</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>1921</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1935</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -3935,12 +3771,14 @@
         <v>-10548.6104</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>1918</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1935</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3974,12 +3812,14 @@
         <v>-10231.2304</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>1931</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1935</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4013,12 +3853,14 @@
         <v>-12586.6401</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>1934</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1935</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4052,12 +3894,14 @@
         <v>-12507.7901</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>1931</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1935</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4094,7 +3938,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1935</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4131,7 +3977,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1935</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4168,7 +4016,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1935</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4202,12 +4052,12 @@
         <v>-14838.8903</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1955</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1935</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4241,12 +4091,12 @@
         <v>-14838.8903</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1961</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1935</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4283,7 +4133,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1935</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4317,12 +4169,12 @@
         <v>-14838.8903</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1961</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1935</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4359,7 +4211,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1935</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4396,7 +4250,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1935</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4433,7 +4289,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1935</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4470,7 +4328,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1935</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4507,7 +4367,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1935</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4544,7 +4406,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1935</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4556,6 +4420,6 @@
       <c r="M118" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest HC.xlsx
+++ b/BackTest/2019-10-31 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>-4553.113600000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-4411.253600000002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-4482.213500000002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-4556.022900000002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-4427.312900000002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4415.203700000002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8162.187200000002</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-8162.187200000002</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-8162.187200000002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-10875.5131</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-10902.1992</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-10860.1824</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-10727.3</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-8520.131900000002</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-9164.708900000001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-9456.6947</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-11100.6677</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-11349.6741</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-11363.102</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-11368.102</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,14 +3652,10 @@
         <v>-11526.4612</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1935</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3689,183 +3685,153 @@
         <v>-11645.6874</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1923</v>
-      </c>
-      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1918</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1920</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1918</v>
+      </c>
+      <c r="F101" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-11682.4874</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1929</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1931</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1931</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1929</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1133.877</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-10548.6104</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
         <v>1935</v>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="C103" t="n">
+        <v>1934</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1935</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1934</v>
+      </c>
+      <c r="F103" t="n">
+        <v>317.38</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-10231.2304</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1931</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1931</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1931</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1950</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1931</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2355.4097</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-12586.6401</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1931</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>1920</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1918</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1920</v>
-      </c>
-      <c r="E101" t="n">
-        <v>1918</v>
-      </c>
-      <c r="F101" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-11682.4874</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1921</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1935</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1929</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1931</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1931</v>
-      </c>
-      <c r="E102" t="n">
-        <v>1929</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1133.877</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-10548.6104</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1918</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1935</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1935</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1934</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1935</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1934</v>
-      </c>
-      <c r="F103" t="n">
-        <v>317.38</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-10231.2304</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1931</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1935</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1945</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1931</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1950</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1931</v>
-      </c>
-      <c r="F104" t="n">
-        <v>2355.4097</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-12586.6401</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1934</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1935</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3894,13 +3860,11 @@
         <v>-12507.7901</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
         <v>1931</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1935</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -3935,11 +3899,13 @@
         <v>-15352.3542</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1940</v>
+      </c>
       <c r="J106" t="n">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -3974,11 +3940,13 @@
         <v>-15302.2342</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1933</v>
+      </c>
       <c r="J107" t="n">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4017,7 +3985,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4056,7 +4024,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4095,7 +4063,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4134,7 +4102,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4173,7 +4141,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4212,7 +4180,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4251,7 +4219,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4290,7 +4258,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4329,7 +4297,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4368,7 +4336,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4407,7 +4375,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4420,6 +4388,6 @@
       <c r="M118" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest HC.xlsx
+++ b/BackTest/2019-10-31 BackTest HC.xlsx
@@ -616,7 +616,7 @@
         <v>-3395.482100000002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8162.187200000002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1804,10 +1804,14 @@
         <v>-9511.088000000002</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1942</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1942</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1840,8 +1844,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1880,19 @@
         <v>-9680.456300000002</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1942</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +1924,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +1963,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2002,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2041,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2080,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2119,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2158,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2194,17 @@
         <v>-8520.131900000002</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2236,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2275,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2311,17 @@
         <v>-9164.708900000001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2353,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2392,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2431,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2470,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2509,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2548,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2587,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2626,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2662,17 @@
         <v>-9456.6947</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2704,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2743,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2782,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2821,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2860,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2899,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +2938,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +2977,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3016,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,13 +3052,19 @@
         <v>-9639.732899999997</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1942</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>1.010447991761071</v>
       </c>
       <c r="M75" t="inlineStr"/>
     </row>
@@ -3025,7 +3223,7 @@
         <v>-10148.1155</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3256,7 @@
         <v>-10633.258</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3289,7 @@
         <v>-10869.6845</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3322,7 @@
         <v>-10638.0728</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3190,7 +3388,7 @@
         <v>-10656.0663</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3322,7 +3520,7 @@
         <v>-11100.5677</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3454,7 +3652,7 @@
         <v>-11349.6741</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,10 +3718,14 @@
         <v>-11463.202</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1940</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1940</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
@@ -3553,11 +3755,19 @@
         <v>-11463.102</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1940</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1940</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3796,17 @@
         <v>-11363.102</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1940</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,10 +3835,14 @@
         <v>-11368.102</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1946</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
@@ -3652,11 +3872,19 @@
         <v>-11526.4612</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1935</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1946</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3913,19 @@
         <v>-11645.6874</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1923</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1946</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3954,19 @@
         <v>-11682.4874</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1921</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1946</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3995,19 @@
         <v>-10548.6104</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1918</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1946</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3790,9 +4042,13 @@
         <v>1931</v>
       </c>
       <c r="J103" t="n">
-        <v>1931</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
+        <v>1946</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,15 +4077,17 @@
         <v>-12586.6401</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1934</v>
+      </c>
       <c r="J104" t="n">
-        <v>1931</v>
+        <v>1946</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -3864,7 +4122,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>1931</v>
+        <v>1946</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -3905,7 +4163,7 @@
         <v>1940</v>
       </c>
       <c r="J106" t="n">
-        <v>1931</v>
+        <v>1946</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -3946,7 +4204,7 @@
         <v>1933</v>
       </c>
       <c r="J107" t="n">
-        <v>1931</v>
+        <v>1946</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -3981,11 +4239,13 @@
         <v>-15302.13419999999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1947</v>
+      </c>
       <c r="J108" t="n">
-        <v>1931</v>
+        <v>1946</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4020,11 +4280,13 @@
         <v>-14838.8903</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1955</v>
+      </c>
       <c r="J109" t="n">
-        <v>1931</v>
+        <v>1946</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4059,11 +4321,13 @@
         <v>-14838.8903</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1961</v>
+      </c>
       <c r="J110" t="n">
-        <v>1931</v>
+        <v>1946</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4102,7 +4366,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>1931</v>
+        <v>1946</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4137,11 +4401,13 @@
         <v>-14838.8903</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1961</v>
+      </c>
       <c r="J112" t="n">
-        <v>1931</v>
+        <v>1946</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4180,7 +4446,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>1931</v>
+        <v>1946</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4215,11 +4481,13 @@
         <v>-14838.8903</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1961</v>
+      </c>
       <c r="J114" t="n">
-        <v>1931</v>
+        <v>1946</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4254,11 +4522,13 @@
         <v>-14303.7903</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1961</v>
+      </c>
       <c r="J115" t="n">
-        <v>1931</v>
+        <v>1946</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4293,11 +4563,13 @@
         <v>-14303.7903</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1979</v>
+      </c>
       <c r="J116" t="n">
-        <v>1931</v>
+        <v>1946</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4336,7 +4608,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>1931</v>
+        <v>1946</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4371,11 +4643,13 @@
         <v>-14528.7903</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1960</v>
+      </c>
       <c r="J118" t="n">
-        <v>1931</v>
+        <v>1946</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>

--- a/BackTest/2019-10-31 BackTest HC.xlsx
+++ b/BackTest/2019-10-31 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>51.4426</v>
       </c>
       <c r="G2" t="n">
-        <v>-3302.384700000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>101.9016</v>
       </c>
       <c r="G3" t="n">
-        <v>-3404.286300000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>231.7256</v>
       </c>
       <c r="G4" t="n">
-        <v>-3636.011900000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>267.7</v>
       </c>
       <c r="G5" t="n">
-        <v>-3368.311900000002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>27.1702</v>
       </c>
       <c r="G6" t="n">
-        <v>-3395.482100000002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>269</v>
       </c>
       <c r="G7" t="n">
-        <v>-3395.482100000002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1157.6315</v>
       </c>
       <c r="G8" t="n">
-        <v>-4553.113600000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>141.86</v>
       </c>
       <c r="G9" t="n">
-        <v>-4411.253600000002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>70.9599</v>
       </c>
       <c r="G10" t="n">
-        <v>-4482.213500000002</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>73.8094</v>
       </c>
       <c r="G11" t="n">
-        <v>-4556.022900000002</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>128.71</v>
       </c>
       <c r="G12" t="n">
-        <v>-4427.312900000002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>12.1092</v>
       </c>
       <c r="G13" t="n">
-        <v>-4415.203700000002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>3746.9835</v>
       </c>
       <c r="G14" t="n">
-        <v>-8162.187200000002</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1000.0165</v>
       </c>
       <c r="G15" t="n">
-        <v>-8162.187200000002</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>626.8774</v>
       </c>
       <c r="G16" t="n">
-        <v>-8162.187200000002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>129.84</v>
       </c>
       <c r="G17" t="n">
-        <v>-8162.187200000002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>2713.3259</v>
       </c>
       <c r="G18" t="n">
-        <v>-10875.5131</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>26.6861</v>
       </c>
       <c r="G19" t="n">
-        <v>-10902.1992</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,19 @@
         <v>42.0168</v>
       </c>
       <c r="G20" t="n">
-        <v>-10860.1824</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1925</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1925</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1017,23 @@
         <v>132.8824</v>
       </c>
       <c r="G21" t="n">
-        <v>-10727.3</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>1944</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1925</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1055,21 @@
         <v>19.95</v>
       </c>
       <c r="G22" t="n">
-        <v>-10707.35</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>1925</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1091,15 @@
         <v>576.8339</v>
       </c>
       <c r="G23" t="n">
-        <v>-10130.5161</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1121,15 @@
         <v>0.11</v>
       </c>
       <c r="G24" t="n">
-        <v>-10130.4061</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1151,15 @@
         <v>17.7285</v>
       </c>
       <c r="G25" t="n">
-        <v>-10148.1346</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1181,15 @@
         <v>109.1844</v>
       </c>
       <c r="G26" t="n">
-        <v>-10038.9502</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1211,15 @@
         <v>7.4873</v>
       </c>
       <c r="G27" t="n">
-        <v>-10046.4375</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1241,15 @@
         <v>83.7852</v>
       </c>
       <c r="G28" t="n">
-        <v>-10130.2227</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1271,15 @@
         <v>0.1</v>
       </c>
       <c r="G29" t="n">
-        <v>-10130.1227</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1301,15 @@
         <v>124</v>
       </c>
       <c r="G30" t="n">
-        <v>-10006.1227</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1331,15 @@
         <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>-10006.1227</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1361,15 @@
         <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>-10006.1227</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1391,15 @@
         <v>0.1374</v>
       </c>
       <c r="G33" t="n">
-        <v>-10006.1227</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1421,15 @@
         <v>0.1</v>
       </c>
       <c r="G34" t="n">
-        <v>-10006.0227</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1451,15 @@
         <v>137.4</v>
       </c>
       <c r="G35" t="n">
-        <v>-10143.4227</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1481,15 @@
         <v>6</v>
       </c>
       <c r="G36" t="n">
-        <v>-10149.4227</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1511,15 @@
         <v>0.16</v>
       </c>
       <c r="G37" t="n">
-        <v>-10149.2627</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1541,15 @@
         <v>187.05</v>
       </c>
       <c r="G38" t="n">
-        <v>-10336.3127</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1571,15 @@
         <v>113.8368</v>
       </c>
       <c r="G39" t="n">
-        <v>-10222.4759</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1601,15 @@
         <v>9.7121</v>
       </c>
       <c r="G40" t="n">
-        <v>-10232.188</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1631,15 @@
         <v>1.1</v>
       </c>
       <c r="G41" t="n">
-        <v>-10231.088</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1661,15 @@
         <v>17.7323</v>
       </c>
       <c r="G42" t="n">
-        <v>-10248.8203</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,22 +1691,15 @@
         <v>737.7323</v>
       </c>
       <c r="G43" t="n">
-        <v>-9511.088000000002</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1942</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1838,24 +1721,15 @@
         <v>310.2412</v>
       </c>
       <c r="G44" t="n">
-        <v>-9821.329200000002</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1877,26 +1751,15 @@
         <v>140.8729</v>
       </c>
       <c r="G45" t="n">
-        <v>-9680.456300000002</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1942</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1918,24 +1781,15 @@
         <v>18.1617</v>
       </c>
       <c r="G46" t="n">
-        <v>-9662.294600000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1957,24 +1811,15 @@
         <v>38.7602</v>
       </c>
       <c r="G47" t="n">
-        <v>-9701.054800000002</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1996,24 +1841,15 @@
         <v>1000.005</v>
       </c>
       <c r="G48" t="n">
-        <v>-8701.049800000003</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2035,24 +1871,15 @@
         <v>86.33329999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>-8614.716500000002</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2074,24 +1901,15 @@
         <v>17.8677</v>
       </c>
       <c r="G50" t="n">
-        <v>-8632.584200000003</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2113,24 +1931,15 @@
         <v>130.2</v>
       </c>
       <c r="G51" t="n">
-        <v>-8502.384200000002</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2152,24 +1961,15 @@
         <v>17.8677</v>
       </c>
       <c r="G52" t="n">
-        <v>-8520.251900000003</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2191,24 +1991,15 @@
         <v>0.12</v>
       </c>
       <c r="G53" t="n">
-        <v>-8520.131900000002</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2230,24 +2021,15 @@
         <v>415</v>
       </c>
       <c r="G54" t="n">
-        <v>-8935.131900000002</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2269,24 +2051,15 @@
         <v>1.1</v>
       </c>
       <c r="G55" t="n">
-        <v>-8934.031900000002</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2308,24 +2081,15 @@
         <v>230.677</v>
       </c>
       <c r="G56" t="n">
-        <v>-9164.708900000001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2347,24 +2111,15 @@
         <v>18.1969</v>
       </c>
       <c r="G57" t="n">
-        <v>-9182.905800000002</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2386,24 +2141,15 @@
         <v>0.1</v>
       </c>
       <c r="G58" t="n">
-        <v>-9182.805800000002</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2425,24 +2171,15 @@
         <v>0.12</v>
       </c>
       <c r="G59" t="n">
-        <v>-9182.685800000001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2464,24 +2201,15 @@
         <v>0.12</v>
       </c>
       <c r="G60" t="n">
-        <v>-9182.5658</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2503,24 +2231,15 @@
         <v>15.1589</v>
       </c>
       <c r="G61" t="n">
-        <v>-9197.724700000001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2542,24 +2261,15 @@
         <v>0.1</v>
       </c>
       <c r="G62" t="n">
-        <v>-9197.6247</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2581,24 +2291,15 @@
         <v>259.35</v>
       </c>
       <c r="G63" t="n">
-        <v>-9456.974700000001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2620,24 +2321,15 @@
         <v>0.18</v>
       </c>
       <c r="G64" t="n">
-        <v>-9456.7947</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2659,24 +2351,15 @@
         <v>0.1</v>
       </c>
       <c r="G65" t="n">
-        <v>-9456.6947</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2698,24 +2381,15 @@
         <v>13.5696</v>
       </c>
       <c r="G66" t="n">
-        <v>-9470.264300000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2737,24 +2411,15 @@
         <v>0.2</v>
       </c>
       <c r="G67" t="n">
-        <v>-9470.0643</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2776,24 +2441,15 @@
         <v>88.6225</v>
       </c>
       <c r="G68" t="n">
-        <v>-9558.686799999999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2815,24 +2471,15 @@
         <v>0.1</v>
       </c>
       <c r="G69" t="n">
-        <v>-9558.586799999999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2854,24 +2501,15 @@
         <v>0.1</v>
       </c>
       <c r="G70" t="n">
-        <v>-9558.486799999999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2893,24 +2531,15 @@
         <v>0.1</v>
       </c>
       <c r="G71" t="n">
-        <v>-9558.386799999998</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2932,24 +2561,15 @@
         <v>343.9</v>
       </c>
       <c r="G72" t="n">
-        <v>-9902.286799999998</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2971,24 +2591,15 @@
         <v>0.1</v>
       </c>
       <c r="G73" t="n">
-        <v>-9902.186799999998</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3010,24 +2621,15 @@
         <v>262.4539</v>
       </c>
       <c r="G74" t="n">
-        <v>-9639.732899999997</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3049,24 +2651,15 @@
         <v>212.9989</v>
       </c>
       <c r="G75" t="n">
-        <v>-9639.732899999997</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1.010447991761071</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3088,18 +2681,15 @@
         <v>161.8945</v>
       </c>
       <c r="G76" t="n">
-        <v>-9477.838399999997</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3121,18 +2711,15 @@
         <v>400.2155</v>
       </c>
       <c r="G77" t="n">
-        <v>-9878.053899999997</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3154,18 +2741,15 @@
         <v>30</v>
       </c>
       <c r="G78" t="n">
-        <v>-9848.053899999997</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3187,18 +2771,15 @@
         <v>300.1616</v>
       </c>
       <c r="G79" t="n">
-        <v>-10148.2155</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3220,18 +2801,15 @@
         <v>0.1</v>
       </c>
       <c r="G80" t="n">
-        <v>-10148.1155</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3253,18 +2831,15 @@
         <v>485.1425</v>
       </c>
       <c r="G81" t="n">
-        <v>-10633.258</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3286,18 +2861,15 @@
         <v>236.4265</v>
       </c>
       <c r="G82" t="n">
-        <v>-10869.6845</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3319,18 +2891,15 @@
         <v>231.6117</v>
       </c>
       <c r="G83" t="n">
-        <v>-10638.0728</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3352,18 +2921,15 @@
         <v>0.1</v>
       </c>
       <c r="G84" t="n">
-        <v>-10637.9728</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3385,18 +2951,15 @@
         <v>18.0935</v>
       </c>
       <c r="G85" t="n">
-        <v>-10656.0663</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3418,18 +2981,15 @@
         <v>466.7482</v>
       </c>
       <c r="G86" t="n">
-        <v>-11122.8145</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3451,18 +3011,15 @@
         <v>36.8613</v>
       </c>
       <c r="G87" t="n">
-        <v>-11085.9532</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3484,18 +3041,15 @@
         <v>14.7145</v>
       </c>
       <c r="G88" t="n">
-        <v>-11100.6677</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3517,18 +3071,15 @@
         <v>0.1</v>
       </c>
       <c r="G89" t="n">
-        <v>-11100.5677</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3550,18 +3101,15 @@
         <v>105.9189</v>
       </c>
       <c r="G90" t="n">
-        <v>-11206.4866</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3583,18 +3131,15 @@
         <v>18.5341</v>
       </c>
       <c r="G91" t="n">
-        <v>-11225.0207</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3616,18 +3161,15 @@
         <v>107.3135</v>
       </c>
       <c r="G92" t="n">
-        <v>-11332.3342</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3649,18 +3191,15 @@
         <v>17.3399</v>
       </c>
       <c r="G93" t="n">
-        <v>-11349.6741</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3682,18 +3221,15 @@
         <v>113.5279</v>
       </c>
       <c r="G94" t="n">
-        <v>-11463.202</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3715,22 +3251,15 @@
         <v>515.1983</v>
       </c>
       <c r="G95" t="n">
-        <v>-11463.202</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1940</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1940</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3752,26 +3281,15 @@
         <v>0.1</v>
       </c>
       <c r="G96" t="n">
-        <v>-11463.102</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1940</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1940</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3793,24 +3311,15 @@
         <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>-11363.102</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>1940</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3832,22 +3341,15 @@
         <v>5</v>
       </c>
       <c r="G98" t="n">
-        <v>-11368.102</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1946</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3869,26 +3371,15 @@
         <v>158.3592</v>
       </c>
       <c r="G99" t="n">
-        <v>-11526.4612</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1935</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3910,26 +3401,15 @@
         <v>119.2262</v>
       </c>
       <c r="G100" t="n">
-        <v>-11645.6874</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1923</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3951,26 +3431,15 @@
         <v>36.8</v>
       </c>
       <c r="G101" t="n">
-        <v>-11682.4874</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1921</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3992,26 +3461,15 @@
         <v>1133.877</v>
       </c>
       <c r="G102" t="n">
-        <v>-10548.6104</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1918</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4033,26 +3491,15 @@
         <v>317.38</v>
       </c>
       <c r="G103" t="n">
-        <v>-10231.2304</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1931</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4074,26 +3521,15 @@
         <v>2355.4097</v>
       </c>
       <c r="G104" t="n">
-        <v>-12586.6401</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1934</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4115,24 +3551,15 @@
         <v>78.84999999999999</v>
       </c>
       <c r="G105" t="n">
-        <v>-12507.7901</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4154,26 +3581,15 @@
         <v>2844.5641</v>
       </c>
       <c r="G106" t="n">
-        <v>-15352.3542</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1940</v>
-      </c>
-      <c r="J106" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4195,26 +3611,15 @@
         <v>50.12</v>
       </c>
       <c r="G107" t="n">
-        <v>-15302.2342</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1933</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4236,26 +3641,15 @@
         <v>0.1</v>
       </c>
       <c r="G108" t="n">
-        <v>-15302.13419999999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1947</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4277,26 +3671,15 @@
         <v>463.2439</v>
       </c>
       <c r="G109" t="n">
-        <v>-14838.8903</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1955</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4318,26 +3701,15 @@
         <v>536.7560999999999</v>
       </c>
       <c r="G110" t="n">
-        <v>-14838.8903</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1961</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4359,24 +3731,15 @@
         <v>535.5445</v>
       </c>
       <c r="G111" t="n">
-        <v>-14838.8903</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4398,26 +3761,15 @@
         <v>816.521</v>
       </c>
       <c r="G112" t="n">
-        <v>-14838.8903</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1961</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4439,24 +3791,15 @@
         <v>553.8298</v>
       </c>
       <c r="G113" t="n">
-        <v>-14838.8903</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4478,26 +3821,15 @@
         <v>399.0699</v>
       </c>
       <c r="G114" t="n">
-        <v>-14838.8903</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1961</v>
-      </c>
-      <c r="J114" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4519,26 +3851,15 @@
         <v>535.1</v>
       </c>
       <c r="G115" t="n">
-        <v>-14303.7903</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1961</v>
-      </c>
-      <c r="J115" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,26 +3881,15 @@
         <v>231.4727</v>
       </c>
       <c r="G116" t="n">
-        <v>-14303.7903</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1979</v>
-      </c>
-      <c r="J116" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4601,24 +3911,15 @@
         <v>225</v>
       </c>
       <c r="G117" t="n">
-        <v>-14528.7903</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4640,26 +3941,15 @@
         <v>57.86</v>
       </c>
       <c r="G118" t="n">
-        <v>-14528.7903</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1960</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
